--- a/DATAKOIN.xlsx
+++ b/DATAKOIN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a61f0e3cbaebe4c9/Desktop/lazisnu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{51CDC737-8B07-4C93-9C4B-62D17F2C2D15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{14EB4CDF-EAF3-4081-AA5F-F7EEF512DD75}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{51CDC737-8B07-4C93-9C4B-62D17F2C2D15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E9F340F5-581A-4B16-A705-72E30ABAA2AA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="486">
   <si>
     <t>NO</t>
   </si>
@@ -1328,63 +1328,6 @@
   </si>
   <si>
     <t>SLAMET RIA</t>
-  </si>
-  <si>
-    <t>DATA FANDRAISER LAZISNU DESA PACAR</t>
-  </si>
-  <si>
-    <t>WILAYAH</t>
-  </si>
-  <si>
-    <t>JUMLAH WARGA</t>
-  </si>
-  <si>
-    <t>UMAR SYARIFUDIN</t>
-  </si>
-  <si>
-    <t>A. TALIYAS</t>
-  </si>
-  <si>
-    <t>ROHANAH</t>
-  </si>
-  <si>
-    <t>ZAENUDIN</t>
-  </si>
-  <si>
-    <t>DZAKWAN</t>
-  </si>
-  <si>
-    <t>ZAENAL MUTTAQIN</t>
-  </si>
-  <si>
-    <t>RT 1,2,3  RW.2</t>
-  </si>
-  <si>
-    <t>RT 4,5,6   RW.2</t>
-  </si>
-  <si>
-    <t>RT 1,2,3  RW.1</t>
-  </si>
-  <si>
-    <t>RT 4,6   RW.1</t>
-  </si>
-  <si>
-    <t>RT 5,7   RW.1</t>
-  </si>
-  <si>
-    <t>TENGAH</t>
-  </si>
-  <si>
-    <t>TIMUR</t>
-  </si>
-  <si>
-    <t>BARAT 1</t>
-  </si>
-  <si>
-    <t>BARAT 2</t>
-  </si>
-  <si>
-    <t>BARAT 3</t>
   </si>
   <si>
     <t>JL.H.ALI</t>
@@ -1619,7 +1562,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1650,14 +1593,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1680,37 +1617,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1724,7 +1635,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1738,35 +1648,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2316,10 +2198,10 @@
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2327,380 +2209,202 @@
     <col min="1" max="1" width="6.42578125" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>423</v>
-      </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <f>COUNTA('RT.01 RW.1'!$B$3:$B$35)</f>
         <v>33</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>425</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f t="shared" ref="A3:A14" si="0">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <f>COUNTA('RT.02 RW.1'!$B$3:$B$39)</f>
         <v>37</v>
       </c>
-      <c r="E3" s="16">
-        <f>ROW()-2</f>
-        <v>1</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>432</v>
-      </c>
-      <c r="H3" s="21">
-        <f>SUM(C9:C11)</f>
-        <v>67</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <f>COUNTA('RT.03 RW.1'!$B$3:$B$40)</f>
         <v>38</v>
       </c>
-      <c r="E4" s="16">
-        <f t="shared" ref="E4:E11" si="1">ROW()-2</f>
-        <v>2</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="23"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <f>COUNTA('RT.04 RW.1'!$B$3:$B$47)</f>
         <v>45</v>
       </c>
-      <c r="E5" s="16">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>433</v>
-      </c>
-      <c r="H5" s="21">
-        <f>SUM(C12:C14)</f>
-        <v>167</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <f>COUNTA('RT.05 RW.1'!$B$3:$B$23)</f>
         <v>21</v>
       </c>
-      <c r="E6" s="16">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="23"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <f>COUNTA('RT.06 RW.1'!$B$3:$B$18)</f>
         <v>16</v>
       </c>
-      <c r="E7" s="16">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="H7" s="21">
-        <f>SUM(C2:C4)</f>
-        <v>108</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <f>COUNTA('RT.07 RW.1'!$B$3:$B$34)</f>
         <v>32</v>
       </c>
-      <c r="E8" s="16">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="23"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <f>COUNTA('RT.01 RW.2'!$B$3:$B$13)</f>
         <v>11</v>
       </c>
-      <c r="E9" s="16">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>435</v>
-      </c>
-      <c r="H9" s="21">
-        <f>SUM(C5,C7)</f>
-        <v>61</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <f>COUNTA('RT.02 RW.2'!$B$3:$B$11)</f>
         <v>9</v>
       </c>
-      <c r="E10" s="16">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="23"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <f>COUNTA('RT.03 RW.2'!$B$3:$B$49)</f>
         <v>47</v>
       </c>
-      <c r="E11" s="16">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="H11" s="16">
-        <f>SUM(C6,C8)</f>
-        <v>53</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <f>COUNTA('RT.04 RW.2'!$B$3:$B$62)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <f>COUNTA('RT.05 RW.2'!$B$3:$B$63)</f>
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <f>COUNTA('RT.06 RW.2'!$B$3:$B$48)</f>
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+    <row r="15" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="12">
+      <c r="B15" s="13"/>
+      <c r="C15" s="11">
         <f>SUM($C$2:$C$14)</f>
         <v>456</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I9:I10"/>
+  <mergeCells count="1">
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
   </mergeCells>
-  <conditionalFormatting sqref="H3:H11">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{51167FA5-9AC3-4475-90AE-77F332C1175F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C2:C14">
     <cfRule type="dataBar" priority="1">
       <dataBar>
@@ -2721,19 +2425,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{51167FA5-9AC3-4475-90AE-77F332C1175F}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFF555A"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H3:H11</xm:sqref>
-        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B208FF35-B3A6-4E87-BFA4-3776455A9113}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
@@ -2773,127 +2464,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-    </row>
-    <row r="3" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C3" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <f t="shared" ref="A4:A11" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C4" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C5" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C6" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C7" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C8" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C9" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C10" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>462</v>
+      <c r="B11" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -2931,571 +2622,571 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-    </row>
-    <row r="3" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C3" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <f t="shared" ref="A4:A49" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C4" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C5" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C6" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C7" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C8" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C9" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C10" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C11" s="5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C12" s="5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C15" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C16" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C17" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C18" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C19" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C20" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C21" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C22" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C23" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C24" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C25" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C26" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C27" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C28" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C29" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C30" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C31" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C32" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C33" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C34" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C35" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C36" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C37" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C38" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C39" s="5" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C40" s="5" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B41" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B42" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C43" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C44" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C45" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C46" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C47" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>503</v>
+      <c r="C48" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -3503,11 +3194,11 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>503</v>
+      <c r="C49" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -3545,475 +3236,475 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-    </row>
-    <row r="3" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C3" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <f t="shared" ref="A4:A62" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C4" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C5" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C6" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C7" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C8" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C10" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C11" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C12" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C13" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C14" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C15" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C16" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C18" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C19" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C20" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C21" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C22" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C23" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C24" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C25" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C26" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C27" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C28" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C29" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C30" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C31" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C32" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C33" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C34" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C35" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C36" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C37" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C38" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C39" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>468</v>
+      <c r="C40" s="5" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -4021,11 +3712,11 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>503</v>
+      <c r="C41" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -4033,11 +3724,11 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>503</v>
+      <c r="C42" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -4045,11 +3736,11 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>503</v>
+      <c r="C43" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -4057,11 +3748,11 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>503</v>
+      <c r="C44" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -4069,11 +3760,11 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>503</v>
+      <c r="C45" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -4081,11 +3772,11 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>503</v>
+      <c r="C46" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -4093,11 +3784,11 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>503</v>
+      <c r="C47" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -4105,11 +3796,11 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>503</v>
+      <c r="C48" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -4117,11 +3808,11 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>503</v>
+      <c r="C49" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -4129,11 +3820,11 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>503</v>
+      <c r="C50" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -4141,11 +3832,11 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>503</v>
+      <c r="C51" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -4153,11 +3844,11 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>503</v>
+      <c r="C52" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -4165,11 +3856,11 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>503</v>
+      <c r="C53" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -4177,11 +3868,11 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B54" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>503</v>
+      <c r="B54" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -4189,11 +3880,11 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>503</v>
+      <c r="B55" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -4201,11 +3892,11 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B56" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>503</v>
+      <c r="B56" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -4213,11 +3904,11 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B57" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>503</v>
+      <c r="B57" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -4225,11 +3916,11 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>503</v>
+      <c r="B58" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -4237,11 +3928,11 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>503</v>
+      <c r="B59" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -4249,11 +3940,11 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B60" s="17" t="s">
-        <v>482</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>503</v>
+      <c r="B60" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -4261,11 +3952,11 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B61" s="17" t="s">
-        <v>483</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>503</v>
+      <c r="B61" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -4273,11 +3964,11 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B62" s="17" t="s">
-        <v>504</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>503</v>
+      <c r="B62" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -4315,559 +4006,559 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-    </row>
-    <row r="3" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C3" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <f t="shared" ref="A4:A63" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C4" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C5" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C6" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C7" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C8" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C9" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C10" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C11" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C12" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C13" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C14" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C15" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C16" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C17" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C18" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C19" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C20" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C21" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C22" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C23" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C24" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C25" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C26" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C27" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C28" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C29" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C30" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C31" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C32" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C33" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C34" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B35" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C36" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C37" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C38" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C39" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C40" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C41" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C42" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C43" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C44" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C45" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C46" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>503</v>
+      <c r="B47" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -4875,11 +4566,11 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>503</v>
+      <c r="C48" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -4887,11 +4578,11 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>503</v>
+      <c r="C49" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -4899,11 +4590,11 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>503</v>
+      <c r="C50" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -4911,11 +4602,11 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>503</v>
+      <c r="C51" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -4923,11 +4614,11 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>503</v>
+      <c r="C52" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -4935,11 +4626,11 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>503</v>
+      <c r="C53" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -4947,11 +4638,11 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>503</v>
+      <c r="C54" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -4959,11 +4650,11 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>503</v>
+      <c r="C55" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -4971,11 +4662,11 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>503</v>
+      <c r="C56" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -4983,11 +4674,11 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>503</v>
+      <c r="C57" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -4995,11 +4686,11 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>503</v>
+      <c r="C58" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -5007,11 +4698,11 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>503</v>
+      <c r="C59" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -5019,11 +4710,11 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>503</v>
+      <c r="B60" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -5031,11 +4722,11 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>503</v>
+      <c r="B61" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -5043,11 +4734,11 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>503</v>
+      <c r="B62" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -5055,11 +4746,11 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>503</v>
+      <c r="B63" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -5097,571 +4788,571 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-    </row>
-    <row r="3" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C3" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <f t="shared" ref="A4:A48" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C4" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C5" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C6" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C7" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C45" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C46" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C47" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>503</v>
+      <c r="C48" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -5699,415 +5390,415 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-    </row>
-    <row r="3" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C3" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <f t="shared" ref="A4:A35" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C4" s="5" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C5" s="5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C6" s="5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C7" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C8" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C9" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C10" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C11" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C12" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C13" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C14" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C15" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C16" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C17" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C18" s="5" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C19" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C20" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C21" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C22" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C23" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C24" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C25" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C26" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C27" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C28" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C29" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C30" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C31" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C32" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C33" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C34" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>503</v>
+      <c r="B35" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -6145,463 +5836,463 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-    </row>
-    <row r="3" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C3" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <f t="shared" ref="A4:A39" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C4" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C5" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C6" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C7" s="5" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C8" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C9" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C10" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C11" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C12" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C13" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C14" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C15" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C16" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C17" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C18" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C19" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C20" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C21" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C22" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C23" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C24" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C25" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C26" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C27" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C28" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C29" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C30" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C31" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C32" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C33" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C34" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C35" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C36" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C37" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B38" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>503</v>
+      <c r="C39" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -6639,475 +6330,475 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-    </row>
-    <row r="3" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C3" s="5" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <f t="shared" ref="A4:A40" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C4" s="5" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C5" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C6" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C7" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C8" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C9" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C10" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C11" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C12" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C13" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C14" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C15" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C16" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C17" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C18" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C19" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C20" s="5" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C21" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C22" s="5" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C23" s="5" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C24" s="5" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C25" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C26" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C27" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C28" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C29" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C30" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C31" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C32" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C33" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C34" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C35" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C36" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C37" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B38" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B39" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>503</v>
+      <c r="B40" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -7145,559 +6836,559 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-    </row>
-    <row r="3" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C3" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <f t="shared" ref="A4:A47" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C4" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C5" s="5" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C6" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C7" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C8" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C9" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C10" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C11" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C12" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C13" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C14" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C16" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C17" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C18" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C19" s="5" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C20" s="5" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C21" s="5" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C22" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C23" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C24" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C25" s="5" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C26" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C27" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C28" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>503</v>
+      <c r="C47" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -7735,271 +7426,271 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-    </row>
-    <row r="3" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C3" s="5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <f t="shared" ref="A4:A23" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C4" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C5" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C6" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C7" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C8" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C9" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C10" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C11" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C12" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C13" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C14" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C15" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C16" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C17" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C18" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C19" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C20" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C21" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C22" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>459</v>
+      <c r="C23" s="5" t="s">
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -8037,211 +7728,211 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-    </row>
-    <row r="3" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C3" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <f t="shared" ref="A4:A18" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C4" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C5" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C6" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C7" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C8" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C9" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C10" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C11" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C12" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C13" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C14" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C15" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C16" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C17" s="5" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>451</v>
+      <c r="C18" s="5" t="s">
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -8279,403 +7970,403 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-    </row>
-    <row r="3" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C3" s="5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <f t="shared" ref="A4:A34" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C4" s="5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C5" s="5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C6" s="5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C7" s="5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C8" s="5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C9" s="5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C10" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C11" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C12" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C13" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C14" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C15" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C16" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C17" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C18" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C19" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C20" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C21" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C22" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C23" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C24" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C25" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C26" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C27" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C28" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C29" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C30" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C31" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C32" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C33" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>503</v>
+      <c r="C34" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -8713,151 +8404,151 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-    </row>
-    <row r="3" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C3" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <f t="shared" ref="A4:A13" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C4" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C5" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C6" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C7" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C8" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C9" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C10" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C11" s="5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C12" s="5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>503</v>
+      <c r="C13" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
   </sheetData>
